--- a/Ejecucion_tiempo.xlsx
+++ b/Ejecucion_tiempo.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="F2" s="4" t="n">
-        <v>44294.19775192567</v>
+        <v>44294.20048364439</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="F3" s="4" t="n">
-        <v>44294.19775193231</v>
+        <v>44294.20048364884</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.643518518518518e-09</v>
+        <v>4.456018518518518e-09</v>
       </c>
     </row>
     <row r="5">

--- a/Ejecucion_tiempo.xlsx
+++ b/Ejecucion_tiempo.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="F2" s="4" t="n">
-        <v>44294.20048364439</v>
+        <v>44294.20387317735</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="F3" s="4" t="n">
-        <v>44294.20048364884</v>
+        <v>44294.20387318082</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.456018518518518e-09</v>
+        <v>3.472222222222222e-09</v>
       </c>
     </row>
     <row r="5">

--- a/Ejecucion_tiempo.xlsx
+++ b/Ejecucion_tiempo.xlsx
@@ -15,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,12 +49,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,13 +481,16 @@
       <c r="C2" s="3" t="n">
         <v>0.2447203125</v>
       </c>
+      <c r="D2" s="4" t="n">
+        <v>8003.772097411157</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Inicio</t>
         </is>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>44294.20387317735</v>
+      <c r="F2" s="5" t="n">
+        <v>44294.20612518853</v>
       </c>
     </row>
     <row r="3">
@@ -498,13 +503,16 @@
       <c r="C3" s="3" t="n">
         <v>0.2447203125</v>
       </c>
+      <c r="D3" s="4" t="n">
+        <v>8003.772097411157</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>44294.20387318082</v>
+      <c r="F3" s="5" t="n">
+        <v>44294.20612519258</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +525,16 @@
       <c r="C4" s="3" t="n">
         <v>0.2447203125</v>
       </c>
+      <c r="D4" s="4" t="n">
+        <v>8003.772097411157</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Duración</t>
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.472222222222222e-09</v>
+        <v>4.050925925925926e-09</v>
       </c>
     </row>
     <row r="5">

--- a/Ejecucion_tiempo.xlsx
+++ b/Ejecucion_tiempo.xlsx
@@ -482,7 +482,7 @@
         <v>0.2447203125</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>8003.772097411157</v>
+        <v>8002</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>44294.20612518853</v>
+        <v>44294.20750801875</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         <v>0.2447203125</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>8003.772097411157</v>
+        <v>8002</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>44294.20612519258</v>
+        <v>44294.20750802255</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +526,7 @@
         <v>0.2447203125</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>8003.772097411157</v>
+        <v>8002</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.050925925925926e-09</v>
+        <v>3.796296296296296e-09</v>
       </c>
     </row>
     <row r="5">

--- a/Ejecucion_tiempo.xlsx
+++ b/Ejecucion_tiempo.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>44294.20750801875</v>
+        <v>44294.21218894753</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>44294.20750802255</v>
+        <v>44294.21218895075</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.796296296296296e-09</v>
+        <v>3.217592592592592e-09</v>
       </c>
     </row>
     <row r="5">

--- a/Ejecucion_tiempo.xlsx
+++ b/Ejecucion_tiempo.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>44294.21218894753</v>
+        <v>44294.23977240403</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>44294.21218895075</v>
+        <v>44294.23977240628</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.217592592592592e-09</v>
+        <v>2.24537037037037e-09</v>
       </c>
     </row>
     <row r="5">
